--- a/doc/用户导入模板.xlsx
+++ b/doc/用户导入模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>用户名</t>
   </si>
@@ -37,75 +37,12 @@
     <t>角色编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>d_test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12313123@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_ad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12313123@qq.com</t>
-  </si>
-  <si>
-    <t>d_test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_test3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_test4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,21 +59,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -168,23 +99,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -193,11 +121,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -239,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,9 +207,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,6 +259,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -480,31 +452,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.90625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -513,104 +485,30 @@
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>13412231212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>13412312312</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>13412312313</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -619,12 +517,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
